--- a/mcmaster_excel/Vibration-Resistant_Sealing_Rounded_Head_Screws.xlsx
+++ b/mcmaster_excel/Vibration-Resistant_Sealing_Rounded_Head_Screws.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,169 +434,129 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Head Ht.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>For Max.Hole Dia.</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Thread LockerTemp. Range, °F</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>O-Ring Temp.Range, °F</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Max.Pressure, psi</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Specifications Met</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr"/>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>Lg.</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fully Threaded</t>
+          <t>Threading</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.125"</t>
+          <t>HeadDia.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.044"</t>
+          <t>Head Ht.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.068"</t>
+          <t>For Max.Hole Dia.</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>No. 0</t>
+          <t>DriveSize</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>70,000</t>
+          <t>TensileStrength, psi</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>-40° to 225°</t>
+          <t>Thread LockerTemp. Range, °F</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-80° to 400°</t>
+          <t>O-Ring Temp.Range, °F</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1,500</t>
+          <t>Max.Pressure, psi</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>MIL-DTL-18240</t>
+          <t>Specifications Met</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>93802A215</t>
-        </is>
-      </c>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
-          <t>$11.72</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0-80</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>18-8 Stainless Steel</t>
-        </is>
-      </c>
+          <t>Pkg.</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -656,12 +616,12 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>93802A218</t>
+          <t>93802A215</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>11.71</t>
+          <t>$11.72</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -678,7 +638,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -738,7 +698,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>93802A221</t>
+          <t>93802A218</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -760,7 +720,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -770,22 +730,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.180"</t>
+          <t>0.125"</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.062"</t>
+          <t>0.044"</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.095"</t>
+          <t>0.068"</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>No. 1</t>
+          <t>No. 0</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -820,17 +780,17 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>93802A315</t>
+          <t>93802A221</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>11.71</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2-56</t>
+          <t>0-80</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -842,7 +802,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3/16"</t>
+          <t>1/8"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -902,7 +862,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>93802A318</t>
+          <t>93802A315</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -924,7 +884,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/16"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -984,12 +944,12 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>93802A321</t>
+          <t>93802A318</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>9.99</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1006,7 +966,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1066,7 +1026,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>93802A325</t>
+          <t>93802A321</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1088,7 +1048,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1148,12 +1108,12 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>93802A329</t>
+          <t>93802A325</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>9.99</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1170,7 +1130,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1180,17 +1140,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.238"</t>
+          <t>0.180"</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.080"</t>
+          <t>0.062"</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.127"</t>
+          <t>0.095"</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1220,7 +1180,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>MIL-DTL-18240, MS3212-1L, NASM3212, NASM82496</t>
+          <t>MIL-DTL-18240</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1230,17 +1190,17 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>93802A421</t>
+          <t>93802A329</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>9.13</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>4-40</t>
+          <t>2-56</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1252,7 +1212,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1302,7 +1262,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>MIL-DTL-18240, MS3212-2L, NASM3212, NASM82496</t>
+          <t>MIL-DTL-18240, MS3212-1L, NASM3212, NASM82496</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -1312,12 +1272,12 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>93802A423</t>
+          <t>93802A421</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>7.85</t>
+          <t>9.13</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1334,7 +1294,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1384,7 +1344,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>MIL-DTL-18240, MS3212-3L, NASM3212, NASM82496</t>
+          <t>MIL-DTL-18240, MS3212-2L, NASM3212, NASM82496</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1394,12 +1354,12 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>93802A425</t>
+          <t>93802A423</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>9.69</t>
+          <t>7.85</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1416,7 +1376,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1466,7 +1426,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>MIL-DTL-18240, MS3212-5L, NASM3212, NASM82496</t>
+          <t>MIL-DTL-18240, MS3212-3L, NASM3212, NASM82496</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1476,12 +1436,12 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>93802A429</t>
+          <t>93802A425</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>9.85</t>
+          <t>9.69</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1498,7 +1458,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1548,7 +1508,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>MIL-DTL-18240, MS3212-7L, NASM3212, NASM82496</t>
+          <t>MIL-DTL-18240, MS3212-5L, NASM3212, NASM82496</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1558,12 +1518,12 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>93802A433</t>
+          <t>93802A429</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>8.23</t>
+          <t>9.85</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1580,7 +1540,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1630,7 +1590,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>MIL-DTL-18240, MS3212-8L, NASM3212, NASM82496</t>
+          <t>MIL-DTL-18240, MS3212-7L, NASM3212, NASM82496</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1640,12 +1600,12 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>93802A438</t>
+          <t>93802A433</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>8.31</t>
+          <t>8.23</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -1662,7 +1622,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1672,22 +1632,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.294"</t>
+          <t>0.238"</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.097"</t>
+          <t>0.080"</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0.150"</t>
+          <t>0.127"</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>No. 2</t>
+          <t>No. 1</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1712,7 +1672,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>MIL-DTL-18240, MS3212-11L, NASM3212, NASM82496</t>
+          <t>MIL-DTL-18240, MS3212-8L, NASM3212, NASM82496</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -1722,17 +1682,17 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>93802A521</t>
+          <t>93802A438</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>7.86</t>
+          <t>8.31</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>6-32</t>
+          <t>4-40</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -1744,7 +1704,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>5/16"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1794,7 +1754,7 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>MIL-DTL-18240, MS3212-12L, NASM3212, NASM82496</t>
+          <t>MIL-DTL-18240, MS3212-11L, NASM3212, NASM82496</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -1804,12 +1764,12 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>93802A523</t>
+          <t>93802A521</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>9.42</t>
+          <t>7.86</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1826,7 +1786,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>5/16"</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1876,7 +1836,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>MIL-DTL-18240, MS3212-13L, NASM3212, NASM82496</t>
+          <t>MIL-DTL-18240, MS3212-12L, NASM3212, NASM82496</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1886,12 +1846,12 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>93802A525</t>
+          <t>93802A523</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>9.69</t>
+          <t>9.42</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -1908,7 +1868,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1958,7 +1918,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>MIL-DTL-18240, MS3212-15L, NASM3212, NASM82496</t>
+          <t>MIL-DTL-18240, MS3212-13L, NASM3212, NASM82496</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -1968,12 +1928,12 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>93802A529</t>
+          <t>93802A525</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>9.85</t>
+          <t>9.69</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -1990,7 +1950,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2040,7 +2000,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>MIL-DTL-18240, MS3212-17L, NASM3212, NASM82496</t>
+          <t>MIL-DTL-18240, MS3212-15L, NASM3212, NASM82496</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -2050,12 +2010,12 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>93802A533</t>
+          <t>93802A529</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>10.15</t>
+          <t>9.85</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -2072,7 +2032,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -2122,7 +2082,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>MIL-DTL-18240, MS3212-18L, NASM3212, NASM82496</t>
+          <t>MIL-DTL-18240, MS3212-17L, NASM3212, NASM82496</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -2132,12 +2092,12 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>93802A538</t>
+          <t>93802A533</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>10.29</t>
+          <t>10.15</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -2154,7 +2114,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2204,7 +2164,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>MIL-DTL-18240, MS3212-20L, NASM3212, NASM82496</t>
+          <t>MIL-DTL-18240, MS3212-18L, NASM3212, NASM82496</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2214,12 +2174,12 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>93802A545</t>
+          <t>93802A538</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>8.85</t>
+          <t>10.29</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -2236,7 +2196,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1 1/4"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -2286,7 +2246,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>MIL-DTL-18240, NASM3212, NASM82496</t>
+          <t>MIL-DTL-18240, MS3212-20L, NASM3212, NASM82496</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2296,12 +2256,12 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>93802A548</t>
+          <t>93802A545</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>9.57</t>
+          <t>8.85</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2318,7 +2278,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1 1/2"</t>
+          <t>1 1/4"</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2378,12 +2338,12 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>93802A553</t>
+          <t>93802A548</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>10.00</t>
+          <t>9.57</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2400,7 +2360,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1/4"</t>
+          <t>1 1/2"</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -2410,17 +2370,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0.347"</t>
+          <t>0.294"</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.115"</t>
+          <t>0.097"</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>0.177"</t>
+          <t>0.150"</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2450,7 +2410,7 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>MIL-DTL-18240, MS3212-21L, NASM3212, NASM82496</t>
+          <t>MIL-DTL-18240, NASM3212, NASM82496</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
@@ -2460,17 +2420,17 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>93802A621</t>
+          <t>93802A553</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>9.99</t>
+          <t>10.00</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>8-32</t>
+          <t>6-32</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -2482,7 +2442,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1/4"</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2532,7 +2492,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>MIL-DTL-18240, MS3212-23L, NASM3212, NASM82496</t>
+          <t>MIL-DTL-18240, MS3212-21L, NASM3212, NASM82496</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2542,12 +2502,12 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>93802A625</t>
+          <t>93802A621</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>11.04</t>
+          <t>9.99</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -2564,7 +2524,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2614,7 +2574,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>MIL-DTL-18240, MS3212-25L, NASM3212, NASM82496</t>
+          <t>MIL-DTL-18240, MS3212-23L, NASM3212, NASM82496</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2624,12 +2584,12 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>93802A629</t>
+          <t>93802A625</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>10.94</t>
+          <t>11.04</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -2646,7 +2606,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -2696,7 +2656,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>MIL-DTL-18240, MS3212-28L, NASM3212, NASM82496</t>
+          <t>MIL-DTL-18240, MS3212-25L, NASM3212, NASM82496</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2706,12 +2666,12 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>93802A638</t>
+          <t>93802A629</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>10.15</t>
+          <t>10.94</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -2728,7 +2688,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -2778,7 +2738,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>MIL-DTL-18240, MS3212-30L, NASM3212, NASM82496</t>
+          <t>MIL-DTL-18240, MS3212-28L, NASM3212, NASM82496</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2788,12 +2748,12 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>93802A645</t>
+          <t>93802A638</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>10.01</t>
+          <t>10.15</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -2810,7 +2770,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3/8"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -2820,17 +2780,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0.403"</t>
+          <t>0.347"</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.133"</t>
+          <t>0.115"</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>0.200"</t>
+          <t>0.177"</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2860,7 +2820,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>MIL-DTL-18240, MS3212-31L, NASM3212, NASM82496</t>
+          <t>MIL-DTL-18240, MS3212-30L, NASM3212, NASM82496</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2870,7 +2830,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>93802A725</t>
+          <t>93802A645</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2880,7 +2840,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>10-32</t>
+          <t>8-32</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -2892,7 +2852,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>3/8"</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -2942,7 +2902,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>MIL-DTL-18240, MS3212-33L, NASM3212, NASM82496</t>
+          <t>MIL-DTL-18240, MS3212-31L, NASM3212, NASM82496</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2952,12 +2912,12 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>93802A729</t>
+          <t>93802A725</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>9.53</t>
+          <t>10.01</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -2974,7 +2934,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5/8"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3024,7 +2984,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>MIL-DTL-18240, MS3212-35L, NASM3212, NASM82496</t>
+          <t>MIL-DTL-18240, MS3212-33L, NASM3212, NASM82496</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -3034,12 +2994,12 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>93802A733</t>
+          <t>93802A729</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>10.29</t>
+          <t>9.53</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -3056,7 +3016,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>5/8"</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -3106,7 +3066,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>MIL-DTL-18240, MS3212-36L, NASM3212, NASM82496</t>
+          <t>MIL-DTL-18240, MS3212-35L, NASM3212, NASM82496</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -3116,12 +3076,12 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>93802A738</t>
+          <t>93802A733</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>9.99</t>
+          <t>10.29</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -3138,7 +3098,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1"</t>
+          <t>3/4"</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -3188,7 +3148,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>MIL-DTL-18240, MS3212-38L, NASM3212, NASM82496</t>
+          <t>MIL-DTL-18240, MS3212-36L, NASM3212, NASM82496</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -3198,12 +3158,12 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>93802A745</t>
+          <t>93802A738</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>8.85</t>
+          <t>9.99</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -3220,7 +3180,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>1/2"</t>
+          <t>1"</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -3230,22 +3190,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0.517"</t>
+          <t>0.403"</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.175"</t>
+          <t>0.133"</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0.265"</t>
+          <t>0.200"</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>No. 3</t>
+          <t>No. 2</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -3270,7 +3230,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>MIL-DTL-18240, MS3212-49L, NASM3212, NASM82496</t>
+          <t>MIL-DTL-18240, MS3212-38L, NASM3212, NASM82496</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -3280,17 +3240,17 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>93802A829</t>
+          <t>93802A745</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>11.15</t>
+          <t>8.85</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>1/4"-20</t>
+          <t>10-32</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -3302,7 +3262,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>3/4"</t>
+          <t>1/2"</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -3352,7 +3312,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>MIL-DTL-18240, MS3212-52L, NASM3212, NASM82496</t>
+          <t>MIL-DTL-18240, MS3212-49L, NASM3212, NASM82496</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -3362,12 +3322,12 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>93802A838</t>
+          <t>93802A829</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>12.86</t>
+          <t>11.15</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -3384,80 +3344,162 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>3/4"</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Fully Threaded</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>0.517"</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.175"</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>0.265"</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>No. 3</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>70,000</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>-40° to 225°</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>-80° to 400°</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>1,500</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>MIL-DTL-18240, MS3212-52L, NASM3212, NASM82496</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>93802A838</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>12.86</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>1/4"-20</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>18-8 Stainless Steel</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
           <t>1"</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B38" t="inlineStr">
         <is>
           <t>Fully Threaded</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C38" t="inlineStr">
         <is>
           <t>0.517"</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>0.175"</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>0.265"</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>No. 3</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>70,000</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>-40° to 225°</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>-80° to 400°</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>1,500</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>MIL-DTL-18240, MS3212-54L, NASM3212, NASM82496</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="L38" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr">
+      <c r="M38" t="inlineStr">
         <is>
           <t>93802A845</t>
         </is>
       </c>
-      <c r="N37" t="inlineStr">
+      <c r="N38" t="inlineStr">
         <is>
           <t>14.00</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr">
+      <c r="O38" t="inlineStr">
         <is>
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="P37" t="inlineStr">
+      <c r="P38" t="inlineStr">
         <is>
           <t>18-8 Stainless Steel</t>
         </is>
